--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -864,11 +864,10 @@
 </t>
   </si>
   <si>
-    <t>Electronic Product Information composition</t>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
   </si>
   <si>
-    <t>Electronic Product Information composition.
-A composition is a set of source of regulated and scientifically validated information that assists healthcare professionals in prescribing and dispensing the medicine and informs consumers about its safe and effective use.While a Composition defines the structure and content of the ePI's narrative text, it does not contain the full content of an ePI document. The Bundle, of which the Composition is the first resource contained, is the container for the full  content of an ePI.</t>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Bundle-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Bundle-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -860,7 +860,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Composition-uv-epi}
+    <t xml:space="preserve">Composition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Composition-uv-epi}
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi}
+    <t xml:space="preserve">Organization {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi}
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">RegulatedAuthorization {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/RegulatedAuthorization-uv-epi}
+    <t xml:space="preserve">RegulatedAuthorization {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/RegulatedAuthorization-uv-epi}
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>medicinalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicinalProductDefinition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi}
+    <t xml:space="preserve">MedicinalProductDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -957,7 +957,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">AdministrableProductDefinition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/AdministrableProductDefinition-uv-epi}
+    <t xml:space="preserve">AdministrableProductDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/AdministrableProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -974,7 +974,7 @@
     <t>manItem</t>
   </si>
   <si>
-    <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ManufacturedItemDefinition-uv-epi}
+    <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ManufacturedItemDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingredient {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Ingredient-uv-epi}
+    <t xml:space="preserve">Ingredient {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Ingredient-uv-epi}
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>packagedProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">PackagedProductDefinition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/PackagedProductDefinition-uv-epi}
+    <t xml:space="preserve">PackagedProductDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/PackagedProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -1017,7 +1017,7 @@
     <t>substanceDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">SubstanceDefinition {http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/SubstanceDefinition-uv-epi}
+    <t xml:space="preserve">SubstanceDefinition {http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/SubstanceDefinition-uv-epi}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -405,7 +405,7 @@
     <t>Indicates the purpose of a bundle - how it is intended to be used.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/bundle-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/bundle-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -474,8 +474,8 @@
   </si>
   <si>
     <t>Both Bundle.link and Bundle.entry.link are defined to support providing additional context when Bundles are used (e.g. [HATEOAS](http://en.wikipedia.org/wiki/HATEOAS)). 
-Bundle.entry.link corresponds to links found in the HTTP header if the resource in the entry was [read](http://hl7.org/fhir/5.0.0-ballot/http.html#read) directly.
-This specification defines some specific uses of Bundle.link for [searching](http://hl7.org/fhir/5.0.0-ballot/search.html#conformance) and [paging](http://hl7.org/fhir/5.0.0-ballot/http.html#paging), but no specific uses for Bundle.entry.link, and no defined function in a transaction - the meaning is implementation specific.</t>
+Bundle.entry.link corresponds to links found in the HTTP header if the resource in the entry was [read](http://hl7.org/fhir/5.0.0-snapshot3/http.html#read) directly.
+This specification defines some specific uses of Bundle.link for [searching](http://hl7.org/fhir/5.0.0-snapshot3/search.html#conformance) and [paging](http://hl7.org/fhir/5.0.0-snapshot3/http.html#paging), but no specific uses for Bundle.entry.link, and no defined function in a transaction - the meaning is implementation specific.</t>
   </si>
   <si>
     <t>Bundle.link.id</t>
@@ -538,7 +538,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -553,7 +553,7 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/iana-link-relations|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/iana-link-relations|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Bundle.link.url</t>
@@ -612,13 +612,13 @@
     <t>URI for resource (e.g. the absolute URL server address, URI for UUID/OID, etc.)</t>
   </si>
   <si>
-    <t>The Absolute URL for the resource.  The fullUrl SHALL NOT disagree with the id in the resource - i.e. if the fullUrl is not a urn:uuid, the URL shall be version-independent URL consistent with the Resource.id. The fullUrl is a version independent reference to the resource. Even when not required, fullUrl MAY be set to a urn:uuid to allow referencing entries in a transaction. The fullUrl can be an arbitrary URI and is not limited to urn:uuid, urn:oid, http, and https. The fullUrl element SHALL have a value except when: 
+    <t>The Absolute URL for the resource. Except for transactions and batches, each entry in a Bundle must have a fullUrl. The fullUrl SHALL NOT disagree with the id in the resource - i.e. if the fullUrl is not a urn:uuid, the URL shall be version-independent URL consistent with the Resource.id. The fullUrl is a version independent reference to the resource. Even when not required, fullUrl MAY be set to a urn:uuid to allow referencing entries in a transaction. The fullUrl can be an arbitrary URI and is not limited to urn:uuid, urn:oid, http, and https. The fullUrl element SHALL have a value except when: 
 * invoking a create
 * invoking or responding to an operation where the body is not a single identified resource
 * invoking or returning the results of a search or history operation.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/5.0.0-ballot/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/5.0.0-ballot/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/5.0.0-ballot/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/5.0.0-snapshot3/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/5.0.0-snapshot3/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/5.0.0-snapshot3/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>Bundle.entry.search.mode</t>
   </si>
   <si>
-    <t>match | include | outcome - why this is in the result set</t>
+    <t>match | include - why this is in the result set</t>
   </si>
   <si>
     <t>Why this entry is in the result set - whether it's included as a match or because of an _include requirement, or to convey information or warning information about the search process.</t>
@@ -672,7 +672,7 @@
     <t>Why an entry is in the result set - whether it's included as a match or because of an _include requirement, or to convey information or warning information about the search process.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/search-entry-mode|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/search-entry-mode|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Bundle.entry.search.score</t>
@@ -689,7 +689,7 @@
   </si>
   <si>
     <t>Servers are not required to return a ranking score. 1 is most relevant, and 0 is least relevant. Often, search results are sorted by score, but the client may specify a different sort order.
-See [Patient Match](http://hl7.org/fhir/5.0.0-ballot/patient-operation-match.html) for the EMPI search which relates to this element.</t>
+See [Patient Match](http://hl7.org/fhir/5.0.0-snapshot3/patient-operation-match.html) for the EMPI search which relates to this element.</t>
   </si>
   <si>
     <t>Bundle.entry.request</t>
@@ -726,7 +726,7 @@
     <t>HTTP verbs (in the HTTP command line). See [HTTP rfc](https://tools.ietf.org/html/rfc7231) for details.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/http-verb|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/http-verb|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Bundle.entry.request.url</t>
@@ -747,7 +747,7 @@
     <t>For managing cache validation</t>
   </si>
   <si>
-    <t>If the ETag values match, return a 304 Not Modified status. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/5.0.0-ballot/http.html#cread).</t>
+    <t>If the ETag values match, return a 304 Not Modified status. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/5.0.0-snapshot3/http.html#cread).</t>
   </si>
   <si>
     <t>Bundle.entry.request.ifModifiedSince</t>
@@ -756,7 +756,7 @@
     <t>For managing cache currency</t>
   </si>
   <si>
-    <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/5.0.0-ballot/http.html#cread).</t>
+    <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/5.0.0-snapshot3/http.html#cread).</t>
   </si>
   <si>
     <t>Bundle.entry.request.ifMatch</t>
@@ -765,7 +765,7 @@
     <t>For managing update contention</t>
   </si>
   <si>
-    <t>Only perform the operation if the Etag value matches. For more information, see the API section ["Managing Resource Contention"](http://hl7.org/fhir/5.0.0-ballot/http.html#concurrency).</t>
+    <t>Only perform the operation if the Etag value matches. For more information, see the API section ["Managing Resource Contention"](http://hl7.org/fhir/5.0.0-snapshot3/http.html#concurrency).</t>
   </si>
   <si>
     <t>Bundle.entry.request.ifNoneExist</t>
@@ -774,7 +774,7 @@
     <t>For conditional creates</t>
   </si>
   <si>
-    <t>Instruct the server not to perform the create if a specified resource already exists. For further information, see the API documentation for ["Conditional Create"](http://hl7.org/fhir/5.0.0-ballot/http.html#ccreate). This is just the query portion of the URL - what follows the "?" (not including the "?").</t>
+    <t>Instruct the server not to perform the create if a specified resource already exists. For further information, see the API documentation for ["Conditional Create"](http://hl7.org/fhir/5.0.0-snapshot3/http.html#ccreate). This is just the query portion of the URL - what follows the "?" (not including the "?").</t>
   </si>
   <si>
     <t>Bundle.entry.response</t>
@@ -823,7 +823,7 @@
     <t>The Etag for the resource (if relevant)</t>
   </si>
   <si>
-    <t>The Etag for the resource, if the operation for the entry produced a versioned resource (see [Resource Metadata and Versioning](http://hl7.org/fhir/5.0.0-ballot/http.html#versioning) and [Managing Resource Contention](http://hl7.org/fhir/5.0.0-ballot/http.html#concurrency)).</t>
+    <t>The Etag for the resource, if the operation for the entry produced a versioned resource (see [Resource Metadata and Versioning](http://hl7.org/fhir/5.0.0-snapshot3/http.html#versioning) and [Managing Resource Contention](http://hl7.org/fhir/5.0.0-snapshot3/http.html#concurrency)).</t>
   </si>
   <si>
     <t>Etags match the Resource.meta.versionId. The ETag has to match the version id in the header if a resource is included.</t>
@@ -2567,7 +2567,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -33885,7 +33885,7 @@
         <v>88</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L277" t="s" s="2">
         <v>187</v>
@@ -37509,7 +37509,7 @@
         <v>88</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>187</v>
@@ -41133,7 +41133,7 @@
         <v>88</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L341" t="s" s="2">
         <v>187</v>
@@ -44757,7 +44757,7 @@
         <v>88</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L373" t="s" s="2">
         <v>187</v>
@@ -48381,7 +48381,7 @@
         <v>88</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L405" t="s" s="2">
         <v>187</v>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12177,7 +12177,7 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>192</v>
@@ -15801,7 +15801,7 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>192</v>
@@ -19425,7 +19425,7 @@
         <v>89</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>192</v>

--- a/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12177,7 +12177,7 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>192</v>
@@ -15801,7 +15801,7 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>192</v>
@@ -19425,7 +19425,7 @@
         <v>89</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>192</v>
